--- a/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
+++ b/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancaaguglia/temp_for_offline/bianca_aguglia/projects_wip/NMC_python_projects/web_content_aggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B168D6D-5047-9444-924B-98D560E11E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA381F-6FC6-654E-8B2C-339D101E6AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="33340" windowHeight="19300" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
+    <workbookView xWindow="12920" yWindow="500" windowWidth="20680" windowHeight="19300" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
   </bookViews>
   <sheets>
     <sheet name="db_schema" sheetId="2" r:id="rId1"/>
     <sheet name="tables_sample_data" sheetId="4" r:id="rId2"/>
     <sheet name="flow" sheetId="6" r:id="rId3"/>
-    <sheet name="misc" sheetId="5" r:id="rId4"/>
+    <sheet name="content_sources" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,16 +38,41 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={22420720-9008-FA4E-AA5D-D96EECF15B6B}</author>
+    <author>tc={3489E14A-A392-8C4B-8258-C331C9CE761D}</author>
+    <author>tc={D4C82144-D583-CA45-A588-EE7163154998}</author>
+    <author>tc={EDA58C75-39BD-7B45-BDE9-991A5F5A9951}</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{22420720-9008-FA4E-AA5D-D96EECF15B6B}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{3489E14A-A392-8C4B-8258-C331C9CE761D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    I don’t know if it’s a good idea to save this info in the database. I’m only doing so because I want to be able to re-run the processing of a day’s data (without requesting it again) if there are errors in my code.
-I’ll keep this column until I learn if it’s practical or not.</t>
+    VALUES:
+—————
+- blog
+- paper
+- news</t>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="1" shapeId="0" xr:uid="{D4C82144-D583-CA45-A588-EE7163154998}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RSS
+API
+scrape</t>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="2" shapeId="0" xr:uid="{EDA58C75-39BD-7B45-BDE9-991A5F5A9951}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    json
+xml
+html</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>doe</t>
   </si>
@@ -205,40 +230,9 @@
     <t>Level 3</t>
   </si>
   <si>
-    <t>to_do</t>
-  </si>
-  <si>
-    <t>function extract_link_data(response)</t>
-  </si>
-  <si>
-    <t>check that page_dict has the keys used to extract data</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>changed DOE format from '31-Jan-2021' to '2021-01-31' to make date comparisons easier in database</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>changed DB table wiki_event (added column event_links_text to be used to determine subject of event description)</t>
-  </si>
-  <si>
-    <t>changed DB: added table wiki_image_data_log</t>
-  </si>
-  <si>
-    <t>function update_table</t>
-  </si>
-  <si>
-    <t>- create a general function for updating tables (instead of the many specific ones)
-- is this a good idea?</t>
-  </si>
-  <si>
-    <t>change 'update_complete'  to int value</t>
-  </si>
-  <si>
     <t>source_type</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>type_id</t>
-  </si>
-  <si>
     <t>is_permission_required</t>
   </si>
   <si>
@@ -297,13 +288,55 @@
   </si>
   <si>
     <t>is_repaired</t>
+  </si>
+  <si>
+    <t>https://ncbiinsights.ncbi.nlm.nih.gov/</t>
+  </si>
+  <si>
+    <t>NCBI Blog</t>
+  </si>
+  <si>
+    <t>name_long</t>
+  </si>
+  <si>
+    <t>National Center for Biotechnology Information (NCBI) - News and Blog</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>is_processed</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>stype_id</t>
+  </si>
+  <si>
+    <t>response_type</t>
+  </si>
+  <si>
+    <t>rtype_id</t>
+  </si>
+  <si>
+    <t>request_type</t>
+  </si>
+  <si>
+    <t>rqtype_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +388,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,10 +616,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -655,15 +709,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,13 +751,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -1046,9 +1108,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D11" dT="2021-01-26T23:52:46.72" personId="{EEF7D88D-B127-C34A-B273-C8DBF2E0E267}" id="{22420720-9008-FA4E-AA5D-D96EECF15B6B}">
-    <text>I don’t know if it’s a good idea to save this info in the database. I’m only doing so because I want to be able to re-run the processing of a day’s data (without requesting it again) if there are errors in my code.
-I’ll keep this column until I learn if it’s practical or not.</text>
+  <threadedComment ref="G8" dT="2021-03-27T23:51:20.68" personId="{EEF7D88D-B127-C34A-B273-C8DBF2E0E267}" id="{3489E14A-A392-8C4B-8258-C331C9CE761D}">
+    <text>VALUES:
+—————
+- blog
+- paper
+- news</text>
+  </threadedComment>
+  <threadedComment ref="J8" dT="2021-03-28T22:48:11.53" personId="{EEF7D88D-B127-C34A-B273-C8DBF2E0E267}" id="{D4C82144-D583-CA45-A588-EE7163154998}">
+    <text>RSS
+API
+scrape</text>
+  </threadedComment>
+  <threadedComment ref="M8" dT="2021-03-28T23:07:20.55" personId="{EEF7D88D-B127-C34A-B273-C8DBF2E0E267}" id="{EDA58C75-39BD-7B45-BDE9-991A5F5A9951}">
+    <text>json
+xml
+html</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1061,7 +1136,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="31" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1126,55 +1201,55 @@
       <c r="P2" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18"/>
       <c r="F5" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J5" s="18"/>
       <c r="L5" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="53"/>
       <c r="C6" s="19"/>
       <c r="D6" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="46" t="s">
-        <v>64</v>
+      <c r="J6" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="38" t="s">
-        <v>70</v>
+      <c r="M6" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="O6" s="19"/>
-      <c r="P6" s="38" t="s">
-        <v>73</v>
+      <c r="P6" s="46" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="53"/>
       <c r="C7" s="19"/>
       <c r="D7" s="39" t="s">
         <v>0</v>
@@ -1197,69 +1272,67 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="53"/>
       <c r="C8" s="19"/>
       <c r="D8" s="39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="49" t="s">
-        <v>9</v>
+      <c r="M8" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="44" t="s">
-        <v>59</v>
+      <c r="P8" s="39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="53"/>
       <c r="C9" s="19"/>
       <c r="D9" s="39" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="39"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="39" t="s">
-        <v>66</v>
-      </c>
+      <c r="J9" s="39"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="M9" s="39"/>
       <c r="O9" s="19"/>
-      <c r="P9" s="49"/>
+      <c r="P9" s="39" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="53"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="42" t="s">
-        <v>62</v>
+      <c r="D10" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="39"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="J10" s="39"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="49"/>
+      <c r="M10" s="39"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="49"/>
+      <c r="P10" s="39" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="53"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="39" t="s">
-        <v>63</v>
+      <c r="D11" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="39"/>
@@ -1268,13 +1341,15 @@
       <c r="L11" s="19"/>
       <c r="M11" s="39"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="39"/>
+      <c r="P11" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="53"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="39" t="s">
-        <v>52</v>
+      <c r="D12" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="39"/>
@@ -1286,10 +1361,10 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="53"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="45" t="s">
-        <v>64</v>
+      <c r="D13" s="57" t="s">
+        <v>78</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="39"/>
@@ -1301,9 +1376,11 @@
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="53"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="39"/>
       <c r="I14" s="19"/>
@@ -1314,9 +1391,11 @@
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="53"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="39"/>
       <c r="I15" s="19"/>
@@ -1327,20 +1406,22 @@
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="53"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="F16" s="19"/>
       <c r="G16" s="39"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="49"/>
+      <c r="J16" s="48"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="48"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="39"/>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="53"/>
       <c r="C17" s="20"/>
       <c r="D17" s="40"/>
       <c r="F17" s="20"/>
@@ -1353,16 +1434,20 @@
       <c r="P17" s="40"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" s="18"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="L19" s="17"/>
       <c r="M19" s="18"/>
@@ -1370,83 +1455,103 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="53"/>
       <c r="C20" s="19"/>
       <c r="D20" s="38" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="50"/>
+      <c r="G20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="53"/>
       <c r="C21" s="19"/>
       <c r="D21" s="39" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="49"/>
+      <c r="G21" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="53"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="42" t="s">
-        <v>59</v>
+      <c r="D22" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="49"/>
+      <c r="G22" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="53"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="39" t="s">
-        <v>77</v>
+      <c r="D23" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="49"/>
+      <c r="G23" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="53"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="39"/>
       <c r="L24" s="19"/>
@@ -1455,11 +1560,13 @@
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="53"/>
       <c r="C25" s="19"/>
       <c r="D25" s="39"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="I25" s="19"/>
       <c r="J25" s="39"/>
       <c r="L25" s="19"/>
@@ -1468,7 +1575,7 @@
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="53"/>
       <c r="C26" s="19"/>
       <c r="D26" s="39"/>
       <c r="F26" s="19"/>
@@ -1481,7 +1588,7 @@
       <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="53"/>
       <c r="C27" s="19"/>
       <c r="D27" s="39"/>
       <c r="F27" s="19"/>
@@ -1494,7 +1601,7 @@
       <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="53"/>
       <c r="C28" s="19"/>
       <c r="D28" s="39"/>
       <c r="F28" s="19"/>
@@ -1507,7 +1614,7 @@
       <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="53"/>
       <c r="C29" s="19"/>
       <c r="D29" s="39"/>
       <c r="F29" s="19"/>
@@ -1520,7 +1627,7 @@
       <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="A30" s="53"/>
       <c r="C30" s="19"/>
       <c r="D30" s="39"/>
       <c r="F30" s="19"/>
@@ -1533,7 +1640,7 @@
       <c r="P30" s="39"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="A31" s="53"/>
       <c r="C31" s="20"/>
       <c r="D31" s="40"/>
       <c r="F31" s="20"/>
@@ -1546,7 +1653,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="53" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="17"/>
@@ -1557,73 +1664,73 @@
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="49"/>
+      <c r="A35" s="53"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="49"/>
+      <c r="A36" s="53"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="49"/>
+      <c r="A37" s="53"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="49"/>
+      <c r="A38" s="53"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="49"/>
+      <c r="A39" s="53"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="53"/>
       <c r="C40" s="19"/>
       <c r="D40" s="39"/>
       <c r="F40" s="19"/>
@@ -1632,7 +1739,7 @@
       <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="53"/>
       <c r="C41" s="19"/>
       <c r="D41" s="39"/>
       <c r="F41" s="19"/>
@@ -1641,7 +1748,7 @@
       <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="53"/>
       <c r="C42" s="19"/>
       <c r="D42" s="39"/>
       <c r="F42" s="19"/>
@@ -1650,7 +1757,7 @@
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="53"/>
       <c r="C43" s="19"/>
       <c r="D43" s="39"/>
       <c r="F43" s="19"/>
@@ -1659,7 +1766,7 @@
       <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="53"/>
       <c r="C44" s="19"/>
       <c r="D44" s="39"/>
       <c r="F44" s="19"/>
@@ -1668,7 +1775,7 @@
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="53"/>
       <c r="C45" s="20"/>
       <c r="D45" s="40"/>
       <c r="F45" s="20"/>
@@ -2338,99 +2445,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BEB1C1-B298-A54D-85CB-9F65BC7E2659}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="35.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>44238</v>
+        <v>44282</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>44241</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>44243</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>44245</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>44246</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>44246</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1CCBA8BA-9928-B841-B227-0F92E217806B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
+++ b/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancaaguglia/temp_for_offline/bianca_aguglia/projects_wip/NMC_python_projects/web_content_aggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA381F-6FC6-654E-8B2C-339D101E6AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE21F391-B5A5-DD41-A77B-E1B4E87A24D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12920" yWindow="500" windowWidth="20680" windowHeight="19300" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>doe</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>rqtype_id</t>
+  </si>
+  <si>
+    <t>is_obsolete</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1426,9 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="40"/>
       <c r="I17" s="20"/>

--- a/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
+++ b/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancaaguglia/temp_for_offline/bianca_aguglia/projects_wip/NMC_python_projects/web_content_aggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE21F391-B5A5-DD41-A77B-E1B4E87A24D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CC21E8-5A29-4742-BD18-AF461839BAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="20680" windowHeight="19300" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33040" windowHeight="19300" activeTab="4" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
   </bookViews>
   <sheets>
     <sheet name="db_schema" sheetId="2" r:id="rId1"/>
     <sheet name="tables_sample_data" sheetId="4" r:id="rId2"/>
     <sheet name="flow" sheetId="6" r:id="rId3"/>
     <sheet name="content_sources" sheetId="5" r:id="rId4"/>
+    <sheet name="follow_up" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>doe</t>
   </si>
@@ -333,13 +334,31 @@
   </si>
   <si>
     <t>is_obsolete</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/bioengineering</t>
+  </si>
+  <si>
+    <t>Channeling your Inner MacGyver - Engineers and physicians working together</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>using eyes for diagnosis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yLsj0Jc71rM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,12 +417,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -623,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -719,13 +732,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1138,7 +1152,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1204,7 +1218,7 @@
       <c r="P2" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1229,7 +1243,7 @@
       <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="57"/>
       <c r="C6" s="19"/>
       <c r="D6" s="41" t="s">
         <v>49</v>
@@ -1239,11 +1253,11 @@
         <v>76</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="53" t="s">
         <v>80</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="55" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="19"/>
@@ -1252,7 +1266,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="C7" s="19"/>
       <c r="D7" s="39" t="s">
         <v>0</v>
@@ -1275,7 +1289,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
       <c r="C8" s="19"/>
       <c r="D8" s="39" t="s">
         <v>50</v>
@@ -1298,7 +1312,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="19"/>
       <c r="D9" s="39" t="s">
         <v>69</v>
@@ -1315,7 +1329,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="57"/>
       <c r="C10" s="19"/>
       <c r="D10" s="39" t="s">
         <v>51</v>
@@ -1332,7 +1346,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="C11" s="19"/>
       <c r="D11" s="42" t="s">
         <v>76</v>
@@ -1349,9 +1363,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="57"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="19"/>
@@ -1364,9 +1378,9 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="19"/>
@@ -1379,7 +1393,7 @@
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="57"/>
       <c r="C14" s="19"/>
       <c r="D14" s="39" t="s">
         <v>52</v>
@@ -1394,7 +1408,7 @@
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="C15" s="19"/>
       <c r="D15" s="39" t="s">
         <v>47</v>
@@ -1409,7 +1423,7 @@
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="57"/>
       <c r="C16" s="19"/>
       <c r="D16" s="45" t="s">
         <v>53</v>
@@ -1424,7 +1438,7 @@
       <c r="P16" s="48"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="C17" s="20"/>
       <c r="D17" s="40" t="s">
         <v>81</v>
@@ -1439,7 +1453,7 @@
       <c r="P17" s="40"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1460,7 +1474,7 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="57"/>
       <c r="C20" s="19"/>
       <c r="D20" s="38" t="s">
         <v>59</v>
@@ -1482,7 +1496,7 @@
       <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
+      <c r="A21" s="57"/>
       <c r="C21" s="19"/>
       <c r="D21" s="39" t="s">
         <v>0</v>
@@ -1504,7 +1518,7 @@
       <c r="P21" s="48"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
+      <c r="A22" s="57"/>
       <c r="C22" s="19"/>
       <c r="D22" s="48" t="s">
         <v>9</v>
@@ -1526,7 +1540,7 @@
       <c r="P22" s="48"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
+      <c r="A23" s="57"/>
       <c r="C23" s="19"/>
       <c r="D23" s="48" t="s">
         <v>63</v>
@@ -1548,7 +1562,7 @@
       <c r="P23" s="48"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="57"/>
       <c r="C24" s="19"/>
       <c r="D24" s="48" t="s">
         <v>73</v>
@@ -1565,7 +1579,7 @@
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="C25" s="19"/>
       <c r="D25" s="39"/>
       <c r="F25" s="19"/>
@@ -1580,7 +1594,7 @@
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="57"/>
       <c r="C26" s="19"/>
       <c r="D26" s="39"/>
       <c r="F26" s="19"/>
@@ -1593,7 +1607,7 @@
       <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
+      <c r="A27" s="57"/>
       <c r="C27" s="19"/>
       <c r="D27" s="39"/>
       <c r="F27" s="19"/>
@@ -1606,7 +1620,7 @@
       <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="57"/>
       <c r="C28" s="19"/>
       <c r="D28" s="39"/>
       <c r="F28" s="19"/>
@@ -1619,7 +1633,7 @@
       <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="A29" s="57"/>
       <c r="C29" s="19"/>
       <c r="D29" s="39"/>
       <c r="F29" s="19"/>
@@ -1632,7 +1646,7 @@
       <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
+      <c r="A30" s="57"/>
       <c r="C30" s="19"/>
       <c r="D30" s="39"/>
       <c r="F30" s="19"/>
@@ -1645,7 +1659,7 @@
       <c r="P30" s="39"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="57"/>
       <c r="C31" s="20"/>
       <c r="D31" s="40"/>
       <c r="F31" s="20"/>
@@ -1658,7 +1672,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="17"/>
@@ -1669,7 +1683,7 @@
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="A34" s="57"/>
       <c r="C34" s="51"/>
       <c r="D34" s="49"/>
       <c r="E34" s="50"/>
@@ -1680,7 +1694,7 @@
       <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+      <c r="A35" s="57"/>
       <c r="C35" s="51"/>
       <c r="D35" s="48"/>
       <c r="E35" s="50"/>
@@ -1691,7 +1705,7 @@
       <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
+      <c r="A36" s="57"/>
       <c r="C36" s="51"/>
       <c r="D36" s="48"/>
       <c r="E36" s="50"/>
@@ -1702,7 +1716,7 @@
       <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
+      <c r="A37" s="57"/>
       <c r="C37" s="51"/>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
@@ -1713,7 +1727,7 @@
       <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
+      <c r="A38" s="57"/>
       <c r="C38" s="51"/>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
@@ -1724,7 +1738,7 @@
       <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
+      <c r="A39" s="57"/>
       <c r="C39" s="51"/>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
@@ -1735,7 +1749,7 @@
       <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
+      <c r="A40" s="57"/>
       <c r="C40" s="19"/>
       <c r="D40" s="39"/>
       <c r="F40" s="19"/>
@@ -1744,7 +1758,7 @@
       <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
+      <c r="A41" s="57"/>
       <c r="C41" s="19"/>
       <c r="D41" s="39"/>
       <c r="F41" s="19"/>
@@ -1753,7 +1767,7 @@
       <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
+      <c r="A42" s="57"/>
       <c r="C42" s="19"/>
       <c r="D42" s="39"/>
       <c r="F42" s="19"/>
@@ -1762,7 +1776,7 @@
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
+      <c r="A43" s="57"/>
       <c r="C43" s="19"/>
       <c r="D43" s="39"/>
       <c r="F43" s="19"/>
@@ -1771,7 +1785,7 @@
       <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
+      <c r="A44" s="57"/>
       <c r="C44" s="19"/>
       <c r="D44" s="39"/>
       <c r="F44" s="19"/>
@@ -1780,7 +1794,7 @@
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
+      <c r="A45" s="57"/>
       <c r="C45" s="20"/>
       <c r="D45" s="40"/>
       <c r="F45" s="20"/>
@@ -2453,7 +2467,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2486,9 +2500,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
+      <c r="D3" s="52" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
+      <c r="D4" s="52" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -2503,8 +2523,42 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1CCBA8BA-9928-B841-B227-0F92E217806B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{34E430A6-1D90-1A41-9116-B3DAC0BD1403}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{54B72D80-03FD-D84B-BF83-C7A12E24C5FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05856D45-F463-AA41-9429-917454DD77BC}">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{58C3E02D-A128-8844-84BC-6077A9853260}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
+++ b/web_content_aggregator/NMC_pp_web_ca_internal_main_excel_26mar21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancaaguglia/temp_for_offline/bianca_aguglia/projects_wip/NMC_python_projects/web_content_aggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CC21E8-5A29-4742-BD18-AF461839BAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F85B40-1EB5-D64B-8353-BE41CDAA74E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33040" windowHeight="19300" activeTab="4" xr2:uid="{CC930904-22FF-4B45-AD19-A35CC6BB2143}"/>
   </bookViews>
@@ -2536,7 +2536,7 @@
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
